--- a/data/trans_orig/IP07A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4840957-310B-4F83-9258-F917EBF48B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8F0252-19B8-437C-84F4-6272F40B618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{452723D2-E794-4757-ADBE-385621F190F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68C84F24-640A-4531-B800-316E9188843A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="438">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,92%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>52,6%</t>
   </si>
   <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
   </si>
   <si>
     <t>51,79%</t>
   </si>
   <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,28 +106,28 @@
     <t>39,3%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -136,28 +136,28 @@
     <t>8,35%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,7 +169,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,07%</t>
+    <t>7,28%</t>
   </si>
   <si>
     <t>0%</t>
@@ -181,7 +181,7 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -202,1048 +202,1063 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
   </si>
   <si>
     <t>50,03%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
   </si>
   <si>
     <t>41,48%</t>
   </si>
   <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
     <t>36,58%</t>
   </si>
   <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2015 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -1252,100 +1267,91 @@
     <t>54,46%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>54,23%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
   </si>
   <si>
     <t>37,29%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
   </si>
   <si>
     <t>36,07%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE84BE4-3FC9-4C08-83B3-BF8A2BC046F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB08420-E8FC-44D3-A0D2-13E1A4187B9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2378,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2399,13 @@
         <v>635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2408,13 +2414,13 @@
         <v>537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2423,13 +2429,13 @@
         <v>1171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2497,13 +2503,13 @@
         <v>27892</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -2512,13 +2518,13 @@
         <v>24144</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -2527,13 +2533,13 @@
         <v>52037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2554,13 @@
         <v>23424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -2563,13 +2569,13 @@
         <v>30837</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -2578,13 +2584,13 @@
         <v>54260</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,13 +2605,13 @@
         <v>7702</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -2614,13 +2620,13 @@
         <v>10984</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2629,10 +2635,10 @@
         <v>18686</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>119</v>
@@ -2841,7 +2847,7 @@
         <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2862,13 @@
         <v>139608</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>189</v>
@@ -2871,13 +2877,13 @@
         <v>127755</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>397</v>
@@ -2886,13 +2892,13 @@
         <v>267362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2913,13 @@
         <v>36315</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2922,13 +2928,13 @@
         <v>30881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>101</v>
@@ -2937,13 +2943,13 @@
         <v>67196</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,10 +2964,10 @@
         <v>2165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>155</v>
@@ -2976,10 +2982,10 @@
         <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2988,13 +2994,13 @@
         <v>4126</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3015,13 @@
         <v>635</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3024,13 +3030,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3039,13 +3045,13 @@
         <v>1171</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3107,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C837612E-BB6A-41B7-99BE-D329D1873583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6577F86F-8604-4A8B-96E0-E3BA866CA2D6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3143,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3244,13 +3250,13 @@
         <v>21993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>49</v>
@@ -3259,13 +3265,13 @@
         <v>34192</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>81</v>
@@ -3274,13 +3280,13 @@
         <v>56184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3301,13 @@
         <v>16526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3310,13 +3316,13 @@
         <v>12982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -3325,13 +3331,13 @@
         <v>29508</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3352,13 @@
         <v>6704</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3361,13 +3367,13 @@
         <v>5908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3376,13 +3382,13 @@
         <v>12612</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3403,13 @@
         <v>630</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3418,7 +3424,7 @@
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3433,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3460,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3469,7 +3475,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3484,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3558,13 @@
         <v>128115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3567,10 +3573,10 @@
         <v>110594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>205</v>
@@ -3654,13 +3660,13 @@
         <v>17968</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>32</v>
@@ -3669,13 +3675,13 @@
         <v>22075</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3684,13 +3690,13 @@
         <v>40044</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3711,13 @@
         <v>619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3738,7 +3744,7 @@
         <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>231</v>
@@ -3777,7 +3783,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3786,13 +3792,13 @@
         <v>767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3854,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3860,13 +3866,13 @@
         <v>26479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -3875,13 +3881,13 @@
         <v>30513</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -3890,13 +3896,13 @@
         <v>56992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3917,13 @@
         <v>26150</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -3926,13 +3932,13 @@
         <v>27755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -3941,13 +3947,13 @@
         <v>53906</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3968,13 @@
         <v>3798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3977,13 +3983,13 @@
         <v>5150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3992,13 +3998,13 @@
         <v>8948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4019,13 @@
         <v>1506</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4043,13 +4049,13 @@
         <v>1506</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4100,7 +4106,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4174,13 @@
         <v>176586</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>250</v>
@@ -4183,13 +4189,13 @@
         <v>175299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -4198,13 +4204,13 @@
         <v>351886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4225,13 @@
         <v>121669</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>157</v>
@@ -4234,13 +4240,13 @@
         <v>110619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -4249,13 +4255,13 @@
         <v>232288</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4276,13 @@
         <v>28471</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -4285,13 +4291,13 @@
         <v>33133</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -4300,13 +4306,13 @@
         <v>61604</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4327,13 @@
         <v>2756</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4339,10 +4345,10 @@
         <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4351,13 +4357,13 @@
         <v>4962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4378,13 @@
         <v>767</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4393,7 +4399,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4402,13 +4408,13 @@
         <v>767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4470,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DFA68E-32CF-479C-82C7-B8D578C73BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F1A870-7B28-4CB6-ABF7-E1B2E9A4B311}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4500,7 +4506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4607,13 +4613,13 @@
         <v>15449</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4622,13 +4628,13 @@
         <v>14875</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4637,13 +4643,13 @@
         <v>30325</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4664,13 @@
         <v>16828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4673,13 +4679,13 @@
         <v>14155</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4688,13 +4694,13 @@
         <v>30983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4715,13 @@
         <v>3690</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4724,13 +4730,13 @@
         <v>2078</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4739,13 +4745,13 @@
         <v>5768</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4766,13 @@
         <v>671</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4775,13 +4781,13 @@
         <v>706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4790,13 +4796,13 @@
         <v>1377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4832,7 +4838,7 @@
         <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4847,7 +4853,7 @@
         <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4921,13 @@
         <v>137666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>200</v>
@@ -4930,13 +4936,13 @@
         <v>138013</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -4945,13 +4951,13 @@
         <v>275679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4972,13 @@
         <v>85679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>128</v>
@@ -4981,13 +4987,13 @@
         <v>89277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>246</v>
@@ -4996,13 +5002,13 @@
         <v>174955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5023,13 @@
         <v>17416</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -5032,13 +5038,13 @@
         <v>18432</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -5047,13 +5053,13 @@
         <v>35848</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5074,13 @@
         <v>3193</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5083,13 +5089,13 @@
         <v>3351</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>303</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5098,13 +5104,13 @@
         <v>6544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5140,7 +5146,7 @@
         <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5155,7 +5161,7 @@
         <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,7 +5217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5223,13 +5229,13 @@
         <v>42212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -5238,13 +5244,13 @@
         <v>38982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5253,13 +5259,13 @@
         <v>81194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5280,13 @@
         <v>31224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -5289,13 +5295,13 @@
         <v>24725</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5304,13 +5310,13 @@
         <v>55949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5331,13 @@
         <v>4625</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5340,13 +5346,13 @@
         <v>9986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5355,13 +5361,13 @@
         <v>14611</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5388,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5391,13 +5397,13 @@
         <v>705</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5406,13 +5412,13 @@
         <v>705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,7 +5439,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5448,7 +5454,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5463,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5537,13 @@
         <v>195326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -5546,13 +5552,13 @@
         <v>191871</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>541</v>
@@ -5561,13 +5567,13 @@
         <v>387197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5588,13 @@
         <v>133731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H23" s="7">
         <v>184</v>
@@ -5597,13 +5603,13 @@
         <v>128156</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>370</v>
@@ -5612,13 +5618,13 @@
         <v>261887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5639,13 @@
         <v>25731</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -5648,13 +5654,13 @@
         <v>30496</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5663,13 +5669,13 @@
         <v>56227</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,10 +5693,10 @@
         <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -5702,10 +5708,10 @@
         <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5714,13 +5720,13 @@
         <v>8626</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,7 +5747,7 @@
         <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5756,7 +5762,7 @@
         <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5771,7 +5777,7 @@
         <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5833,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8F0252-19B8-437C-84F4-6272F40B618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE0B97E-A383-4EBC-9437-9A321021AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{68C84F24-640A-4531-B800-316E9188843A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4531F4ED-DDAF-42F1-BC81-72B6C044F5FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="436">
   <si>
     <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2007 (Tasa respuesta: 46,96%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1282 +73,1276 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
   </si>
   <si>
     <t>51,79%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
     <t>39,3%</t>
   </si>
   <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>38,81%</t>
   </si>
   <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2012 (Tasa respuesta: 44,64%)</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>Menores según frecuencia de que los padres tubiesen suficiente tiempo par él/ella en 2016 (Tasa respuesta: 47,04%)</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>0,28%</t>
   </si>
   <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
   </si>
   <si>
     <t>53,26%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
   </si>
   <si>
     <t>36,7%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,09%</t>
   </si>
   <si>
     <t>0,39%</t>
@@ -1763,7 +1757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB08420-E8FC-44D3-A0D2-13E1A4187B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34325427-540E-4D33-B304-9896C552B24A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1881,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>24047</v>
+        <v>26653</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1896,10 +1890,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>26653</v>
+        <v>24047</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1932,10 +1926,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>18560</v>
+        <v>19440</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1947,10 +1941,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>19440</v>
+        <v>18560</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1983,10 +1977,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>3943</v>
+        <v>4581</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1998,10 +1992,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>4581</v>
+        <v>3943</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2034,10 +2028,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2049,16 +2043,16 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -2073,7 +2067,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>47</v>
@@ -2091,40 +2085,40 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>50</v>
@@ -2136,25 +2130,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>76</v>
+      </c>
+      <c r="D9" s="7">
+        <v>50674</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>71</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47230</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>76</v>
-      </c>
-      <c r="I9" s="7">
-        <v>50674</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -2189,10 +2183,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>111748</v>
+        <v>107378</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>53</v>
@@ -2204,10 +2198,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I10" s="7">
-        <v>107378</v>
+        <v>111748</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
@@ -2240,10 +2234,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7">
-        <v>97623</v>
+        <v>77478</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>62</v>
@@ -2255,10 +2249,10 @@
         <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="I11" s="7">
-        <v>77478</v>
+        <v>97623</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>65</v>
@@ -2291,10 +2285,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>24670</v>
+        <v>15317</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>71</v>
@@ -2306,10 +2300,10 @@
         <v>73</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I12" s="7">
-        <v>15317</v>
+        <v>24670</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>74</v>
@@ -2342,31 +2336,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>684</v>
+        <v>1960</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1960</v>
+        <v>684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>84</v>
@@ -2396,13 +2390,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>89</v>
@@ -2411,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>91</v>
@@ -2429,10 +2423,10 @@
         <v>1171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>92</v>
@@ -2444,25 +2438,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>303</v>
+      </c>
+      <c r="D15" s="7">
+        <v>202670</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>355</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>235360</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>303</v>
-      </c>
-      <c r="I15" s="7">
-        <v>202670</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -2497,10 +2491,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7">
-        <v>27892</v>
+        <v>24144</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>94</v>
@@ -2512,10 +2506,10 @@
         <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>24144</v>
+        <v>27892</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>97</v>
@@ -2548,10 +2542,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>23424</v>
+        <v>30837</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -2563,10 +2557,10 @@
         <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>30837</v>
+        <v>23424</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>106</v>
@@ -2599,34 +2593,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>7702</v>
+        <v>10984</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7702</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>10984</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2635,10 +2629,10 @@
         <v>18686</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>119</v>
@@ -2650,31 +2644,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>802</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>802</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>122</v>
@@ -2689,7 +2683,7 @@
         <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>124</v>
@@ -2707,40 +2701,40 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -2752,25 +2746,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>65965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>88</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>59820</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
-      <c r="I21" s="7">
-        <v>65965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -2805,10 +2799,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D22" s="7">
-        <v>163687</v>
+        <v>158176</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2820,10 +2814,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I22" s="7">
-        <v>158176</v>
+        <v>163687</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2856,10 +2850,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D23" s="7">
-        <v>139608</v>
+        <v>127755</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2871,10 +2865,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="I23" s="7">
-        <v>127755</v>
+        <v>139608</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2907,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7">
-        <v>36315</v>
+        <v>30881</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -2922,10 +2916,10 @@
         <v>147</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I24" s="7">
-        <v>30881</v>
+        <v>36315</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
@@ -2961,28 +2955,28 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2165</v>
+        <v>1960</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>1960</v>
+        <v>2165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>158</v>
@@ -2997,10 +2991,10 @@
         <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>635</v>
+        <v>537</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>162</v>
@@ -3027,13 +3021,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>164</v>
@@ -3048,10 +3042,10 @@
         <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,25 +3054,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>474</v>
+      </c>
+      <c r="D27" s="7">
+        <v>319309</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>514</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>342410</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>474</v>
-      </c>
-      <c r="I27" s="7">
-        <v>319309</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -3126,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6577F86F-8604-4A8B-96E0-E3BA866CA2D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDB42C0-01E9-4B5E-BDCC-6C60E90649ED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3244,10 +3238,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7">
-        <v>21993</v>
+        <v>34192</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>168</v>
@@ -3259,10 +3253,10 @@
         <v>170</v>
       </c>
       <c r="H4" s="7">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>34192</v>
+        <v>21993</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>171</v>
@@ -3295,10 +3289,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>16526</v>
+        <v>12982</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>177</v>
@@ -3310,10 +3304,10 @@
         <v>179</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>12982</v>
+        <v>16526</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>180</v>
@@ -3346,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>6704</v>
+        <v>5908</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>186</v>
@@ -3361,10 +3355,10 @@
         <v>188</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>5908</v>
+        <v>6704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>189</v>
@@ -3397,31 +3391,31 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>630</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>197</v>
@@ -3436,7 +3430,7 @@
         <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>198</v>
@@ -3454,43 +3448,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,25 +3493,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53083</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45853</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53083</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -3552,34 +3546,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>158</v>
+      </c>
+      <c r="D10" s="7">
+        <v>110594</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="7">
         <v>186</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>128115</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="7">
-        <v>158</v>
-      </c>
-      <c r="I10" s="7">
-        <v>110594</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>344</v>
@@ -3588,13 +3582,13 @@
         <v>238709</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,34 +3597,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7">
+        <v>69881</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="7">
         <v>116</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>78993</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
-        <v>69881</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>216</v>
@@ -3639,13 +3633,13 @@
         <v>148874</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,34 +3648,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22075</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>17968</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="7">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22075</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3690,13 +3684,13 @@
         <v>40044</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,31 +3699,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2206</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>619</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2206</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>229</v>
@@ -3744,7 +3738,7 @@
         <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>231</v>
@@ -3756,31 +3750,31 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>767</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>234</v>
@@ -3795,7 +3789,7 @@
         <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>235</v>
@@ -3807,25 +3801,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>293</v>
+      </c>
+      <c r="D15" s="7">
+        <v>204757</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>331</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>226463</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>293</v>
-      </c>
-      <c r="I15" s="7">
-        <v>204757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -3860,10 +3854,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>26479</v>
+        <v>30513</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>236</v>
@@ -3875,10 +3869,10 @@
         <v>238</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>30513</v>
+        <v>26479</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>239</v>
@@ -3914,7 +3908,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>26150</v>
+        <v>27755</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>245</v>
@@ -3929,7 +3923,7 @@
         <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>27755</v>
+        <v>26150</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>248</v>
@@ -3962,10 +3956,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>3798</v>
+        <v>5150</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>254</v>
@@ -3977,19 +3971,19 @@
         <v>256</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>5150</v>
+        <v>3798</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>13</v>
@@ -3998,13 +3992,13 @@
         <v>8948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,34 +4007,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1506</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4052,7 +4046,7 @@
         <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>265</v>
@@ -4070,40 +4064,40 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>267</v>
@@ -4115,25 +4109,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>63418</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>85</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>57933</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>88</v>
-      </c>
-      <c r="I21" s="7">
-        <v>63418</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -4168,10 +4162,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D22" s="7">
-        <v>176586</v>
+        <v>175299</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>268</v>
@@ -4183,19 +4177,19 @@
         <v>270</v>
       </c>
       <c r="H22" s="7">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I22" s="7">
-        <v>175299</v>
+        <v>176586</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>507</v>
@@ -4204,13 +4198,13 @@
         <v>351886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,34 +4213,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>157</v>
+      </c>
+      <c r="D23" s="7">
+        <v>110619</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="7">
         <v>178</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>121669</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H23" s="7">
-        <v>157</v>
-      </c>
-      <c r="I23" s="7">
-        <v>110619</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -4255,13 +4249,13 @@
         <v>232288</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,34 +4264,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33133</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="7">
         <v>41</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>28471</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H24" s="7">
-        <v>46</v>
-      </c>
-      <c r="I24" s="7">
-        <v>33133</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -4306,13 +4300,13 @@
         <v>61604</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,34 +4315,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2206</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2756</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2206</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4357,13 +4351,13 @@
         <v>4962</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,34 +4366,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>767</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4408,13 +4402,13 @@
         <v>767</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,25 +4417,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>456</v>
+      </c>
+      <c r="D27" s="7">
+        <v>321258</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>481</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>330248</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>456</v>
-      </c>
-      <c r="I27" s="7">
-        <v>321258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
@@ -4489,7 +4483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F1A870-7B28-4CB6-ABF7-E1B2E9A4B311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D305BDC-B1D9-4119-B98A-24CD1960EA8B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4506,7 +4500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4610,31 +4604,31 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>15449</v>
+        <v>14875</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>14875</v>
+        <v>15449</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -4643,13 +4637,13 @@
         <v>30325</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,34 +4652,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>14155</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>16828</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>14155</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
@@ -4694,13 +4688,13 @@
         <v>30983</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,34 +4703,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2078</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3690</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2078</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4745,13 +4739,13 @@
         <v>5768</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,31 +4757,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>706</v>
+        <v>671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -4796,13 +4790,13 @@
         <v>1377</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4811,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4832,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4847,13 +4841,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,25 +4856,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7">
+        <v>31814</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="7">
+        <v>51</v>
+      </c>
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31814</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -4915,34 +4909,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>138013</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H10" s="7">
         <v>187</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>137666</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H10" s="7">
-        <v>200</v>
-      </c>
-      <c r="I10" s="7">
-        <v>138013</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -4951,13 +4945,13 @@
         <v>275679</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,34 +4960,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>128</v>
+      </c>
+      <c r="D11" s="7">
+        <v>89277</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H11" s="7">
         <v>118</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>85679</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H11" s="7">
-        <v>128</v>
-      </c>
-      <c r="I11" s="7">
-        <v>89277</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>246</v>
@@ -5002,13 +4996,13 @@
         <v>174955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,34 +5011,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18432</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="7">
         <v>24</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>17416</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H12" s="7">
-        <v>25</v>
-      </c>
-      <c r="I12" s="7">
-        <v>18432</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M12" s="7">
         <v>49</v>
@@ -5053,13 +5047,13 @@
         <v>35848</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,34 +5062,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3351</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3193</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3351</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5104,13 +5098,13 @@
         <v>6544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5119,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5140,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5155,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,25 +5164,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>358</v>
+      </c>
+      <c r="D15" s="7">
+        <v>249073</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="7">
         <v>333</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>243953</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>358</v>
-      </c>
-      <c r="I15" s="7">
-        <v>249073</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>51</v>
@@ -5223,34 +5217,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38982</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H16" s="7">
         <v>58</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>42212</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38982</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -5259,13 +5253,13 @@
         <v>81194</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,34 +5268,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7">
+        <v>24725</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H17" s="7">
         <v>44</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31224</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="H17" s="7">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7">
-        <v>24725</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5310,13 +5304,13 @@
         <v>55949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,34 +5319,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9986</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="7">
         <v>6</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>4625</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9986</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5361,13 +5355,13 @@
         <v>14611</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,34 +5370,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5412,13 +5406,13 @@
         <v>705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5427,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5448,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5463,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,25 +5472,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>104</v>
+      </c>
+      <c r="D21" s="7">
+        <v>74398</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>108</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>78061</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7">
-        <v>104</v>
-      </c>
-      <c r="I21" s="7">
-        <v>74398</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>51</v>
@@ -5531,34 +5525,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>275</v>
+      </c>
+      <c r="D22" s="7">
+        <v>191871</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H22" s="7">
         <v>266</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>195326</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H22" s="7">
-        <v>275</v>
-      </c>
-      <c r="I22" s="7">
-        <v>191871</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>541</v>
@@ -5567,13 +5561,13 @@
         <v>387197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,34 +5576,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>184</v>
+      </c>
+      <c r="D23" s="7">
+        <v>128156</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H23" s="7">
         <v>186</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>133731</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H23" s="7">
-        <v>184</v>
-      </c>
-      <c r="I23" s="7">
-        <v>128156</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M23" s="7">
         <v>370</v>
@@ -5618,13 +5612,13 @@
         <v>261887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,34 +5627,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>42</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30496</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" s="7">
         <v>35</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25731</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H24" s="7">
-        <v>42</v>
-      </c>
-      <c r="I24" s="7">
-        <v>30496</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M24" s="7">
         <v>77</v>
@@ -5669,13 +5663,13 @@
         <v>56227</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,34 +5678,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4763</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3864</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4763</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5720,13 +5714,13 @@
         <v>8626</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5735,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5756,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5771,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,25 +5780,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>508</v>
+      </c>
+      <c r="D27" s="7">
+        <v>355286</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="7">
         <v>492</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>358652</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27" s="7">
-        <v>508</v>
-      </c>
-      <c r="I27" s="7">
-        <v>355286</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>51</v>
